--- a/Ejs4-i (Figs y Tablas)/figs/alimentos.xlsx
+++ b/Ejs4-i (Figs y Tablas)/figs/alimentos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17668"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus.Salido\Documents\Docencia\Asignaturas\LaTeXPress\Ejemplos\Ejemplos-2017\EjsFigsTables\figs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/jesus_salido_uclm_es/Documents/Documentos/PubsTex/PubsDocencia/Curso-LaTeX4TFG/Ejs4-i (Figs y Tablas)/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_25FCF226FB25D6DE5E0689EEB0BE43A897196543" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DEFA42-AA5A-4F71-9567-3A59DC556EF4}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="16380" windowHeight="9090"/>
+    <workbookView xWindow="1305" yWindow="2175" windowWidth="23070" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -499,45 +500,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="2:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -548,7 +549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -560,7 +561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Ejs4-i (Figs y Tablas)/figs/alimentos.xlsx
+++ b/Ejs4-i (Figs y Tablas)/figs/alimentos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3" documentId="11_25FCF226FB25D6DE5E0689EEB0BE43A897196543" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4DEFA42-AA5A-4F71-9567-3A59DC556EF4}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2175" windowWidth="23070" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6330" yWindow="3765" windowWidth="25425" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -504,7 +504,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="385" zoomScaleNormal="385" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
